--- a/output/FY_students_summary.xlsx
+++ b/output/FY_students_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">STARTYEAR_FY</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">2017-2018</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">Stage 3</t>
   </si>
   <si>
@@ -80,18 +77,18 @@
     <t xml:space="preserve">Stage 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Stage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG First Sit WO Res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG Resit WO Res</t>
+  </si>
+  <si>
     <t xml:space="preserve">TWD</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG First Sit WO Res</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG Resit WO Res</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-2020</t>
   </si>
   <si>
@@ -102,24 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">2021-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-2021, 2020-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed, Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All work completed, All work completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-2022, 2021-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 1, Stage 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full, Full</t>
   </si>
 </sst>
 </file>
@@ -620,17 +599,11 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="n">
         <v>3</v>
       </c>
@@ -643,17 +616,11 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="n">
         <v>3</v>
       </c>
@@ -718,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -738,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -761,13 +728,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -784,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -806,22 +773,16 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -830,7 +791,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -844,7 +805,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -853,21 +814,21 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -876,13 +837,13 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -890,7 +851,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -899,21 +860,21 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -922,13 +883,13 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -936,7 +897,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -945,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -959,7 +920,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -968,21 +929,21 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -991,13 +952,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1005,7 +966,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1014,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1028,7 +989,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1037,67 +998,55 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1106,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1120,22 +1069,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1143,22 +1092,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1166,7 +1115,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1175,13 +1124,13 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
         <v>25</v>
@@ -1189,62 +1138,50 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
         <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>29</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1258,53 +1195,47 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1312,154 +1243,95 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="n">
         <v>16</v>
       </c>
     </row>
